--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DB9CF-5602-4E2B-9E8A-3F1FD98AECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="37920" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>SQL_Filter</t>
+  </si>
+  <si>
+    <t>SQL=urn:schemas:httpmail:fromemail = '&lt;senderEmail&gt;' AND urn:schemas:httpmail:subject = '&lt;subject&gt;' AND urn:schemas:httpmail:datereceived &gt;= '&lt;receivedAfter&gt;'</t>
+  </si>
+  <si>
+    <t>VoucherSender</t>
+  </si>
+  <si>
+    <t>VoucherSubject</t>
+  </si>
+  <si>
+    <t>Email_EmailSender</t>
+  </si>
+  <si>
+    <t>Email_EmailSubject</t>
+  </si>
+  <si>
+    <t>Path_CertificationMatrix</t>
+  </si>
+  <si>
+    <t>CertificationMatrix</t>
   </si>
 </sst>
 </file>
@@ -212,10 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,9 +263,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -538,15 +562,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +628,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -617,7 +641,14 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1654,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1696,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1821,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2813,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2828,9 +2861,30 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0DB9CF-5602-4E2B-9E8A-3F1FD98AECFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87A835-BECC-43CA-9D49-2F133DCA43F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="37920" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>CertificationMatrix</t>
+  </si>
+  <si>
+    <t>URL_API_Endpoint</t>
+  </si>
+  <si>
+    <t>API_Endpoint</t>
   </si>
 </sst>
 </file>
@@ -2811,10 +2817,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2885,7 +2892,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3884,5 +3898,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC87A835-BECC-43CA-9D49-2F133DCA43F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8CAB9-A500-4210-8FAC-CB47879A1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="37920" windowHeight="14640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>API_Endpoint</t>
+  </si>
+  <si>
+    <t>db_SQL_ConnectionString</t>
+  </si>
+  <si>
+    <t>SQL_ConnectionString</t>
+  </si>
+  <si>
+    <t>DBQ_UpdateOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE LC_Orders SET Status = 'Completed' WHERE Order_ID = '&lt;orderId&gt;'; </t>
+  </si>
+  <si>
+    <t>DBQ_UpdateItem</t>
+  </si>
+  <si>
+    <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type_ID] = '&lt;itemType&gt;';</t>
   </si>
 </sst>
 </file>
@@ -567,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -655,8 +673,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2820,8 +2852,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2900,7 +2932,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B8CAB9-A500-4210-8FAC-CB47879A1F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A2425-5106-45BF-904B-BDB040BEB61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015A2425-5106-45BF-904B-BDB040BEB61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C725F-CC6D-47EC-8737-68F30448C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>SQL_Filter</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type_ID] = '&lt;itemType&gt;';</t>
+  </si>
+  <si>
+    <t>InternalMarketplace_RetrieveEmailOrder</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -667,26 +667,26 @@
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2902,42 +2902,42 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53C725F-CC6D-47EC-8737-68F30448C92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90762F03-01A3-4CA4-9E84-F9AAF256E5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90762F03-01A3-4CA4-9E84-F9AAF256E5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479CD5A-8C9C-4072-9AAB-ED677901B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,52 +162,52 @@
     <t>SQL_Filter</t>
   </si>
   <si>
+    <t>VoucherSender</t>
+  </si>
+  <si>
+    <t>VoucherSubject</t>
+  </si>
+  <si>
+    <t>Email_EmailSender</t>
+  </si>
+  <si>
+    <t>Email_EmailSubject</t>
+  </si>
+  <si>
+    <t>Path_CertificationMatrix</t>
+  </si>
+  <si>
+    <t>CertificationMatrix</t>
+  </si>
+  <si>
+    <t>URL_API_Endpoint</t>
+  </si>
+  <si>
+    <t>API_Endpoint</t>
+  </si>
+  <si>
+    <t>db_SQL_ConnectionString</t>
+  </si>
+  <si>
+    <t>SQL_ConnectionString</t>
+  </si>
+  <si>
+    <t>DBQ_UpdateOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPDATE LC_Orders SET Status = 'Completed' WHERE Order_ID = '&lt;orderId&gt;'; </t>
+  </si>
+  <si>
+    <t>DBQ_UpdateItem</t>
+  </si>
+  <si>
+    <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type_ID] = '&lt;itemType&gt;';</t>
+  </si>
+  <si>
+    <t>InternalMarketplace_RetrieveEmailOrder</t>
+  </si>
+  <si>
     <t>SQL=urn:schemas:httpmail:fromemail = '&lt;senderEmail&gt;' AND urn:schemas:httpmail:subject = '&lt;subject&gt;' AND urn:schemas:httpmail:datereceived &gt;= '&lt;receivedAfter&gt;'</t>
-  </si>
-  <si>
-    <t>VoucherSender</t>
-  </si>
-  <si>
-    <t>VoucherSubject</t>
-  </si>
-  <si>
-    <t>Email_EmailSender</t>
-  </si>
-  <si>
-    <t>Email_EmailSubject</t>
-  </si>
-  <si>
-    <t>Path_CertificationMatrix</t>
-  </si>
-  <si>
-    <t>CertificationMatrix</t>
-  </si>
-  <si>
-    <t>URL_API_Endpoint</t>
-  </si>
-  <si>
-    <t>API_Endpoint</t>
-  </si>
-  <si>
-    <t>db_SQL_ConnectionString</t>
-  </si>
-  <si>
-    <t>SQL_ConnectionString</t>
-  </si>
-  <si>
-    <t>DBQ_UpdateOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPDATE LC_Orders SET Status = 'Completed' WHERE Order_ID = '&lt;orderId&gt;'; </t>
-  </si>
-  <si>
-    <t>DBQ_UpdateItem</t>
-  </si>
-  <si>
-    <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type_ID] = '&lt;itemType&gt;';</t>
-  </si>
-  <si>
-    <t>InternalMarketplace_RetrieveEmailOrder</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -670,23 +670,23 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2902,42 +2902,42 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479CD5A-8C9C-4072-9AAB-ED677901B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A39DD3-3F57-4CC9-892C-B8738490DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,13 +201,13 @@
     <t>DBQ_UpdateItem</t>
   </si>
   <si>
-    <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type_ID] = '&lt;itemType&gt;';</t>
-  </si>
-  <si>
     <t>InternalMarketplace_RetrieveEmailOrder</t>
   </si>
   <si>
     <t>SQL=urn:schemas:httpmail:fromemail = '&lt;senderEmail&gt;' AND urn:schemas:httpmail:subject = '&lt;subject&gt;' AND urn:schemas:httpmail:datereceived &gt;= '&lt;receivedAfter&gt;'</t>
+  </si>
+  <si>
+    <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type] = '&lt;itemType&gt;';</t>
   </si>
 </sst>
 </file>
@@ -586,13 +586,13 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -636,7 +636,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -670,7 +670,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -686,7 +686,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\Internal_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A39DD3-3F57-4CC9-892C-B8738490DA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F60F9A-6A75-42E6-B9E0-8B37027F3814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="23235" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37920" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,25 @@
   </si>
   <si>
     <t>UPDATE [dbo].[Order_Items] SET [VoucherIds] = '&lt;voucherId&gt;' WHERE [Order_ID] = '&lt;orderId&gt;' AND [Item_Type] = '&lt;itemType&gt;';</t>
+  </si>
+  <si>
+    <t>DBQ_BulkInsertVoucher</t>
+  </si>
+  <si>
+    <t>InsertTemplate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ('&lt;voucher&gt;', 14)</t>
+  </si>
+  <si>
+    <t>INSERT INTO [dbo].[voucher_bank] (voucher_number, voucher_status)
+SELECT v.voucher_number, v.voucher_status
+FROM (VALUES 
+&lt;values&gt;
+) AS v(voucher_number, voucher_status)
+WHERE NOT EXISTS (
+    SELECT 1 FROM [dbo].[voucher_bank] vb WHERE vb.voucher_number = v.voucher_number
+);</t>
   </si>
 </sst>
 </file>
@@ -586,7 +605,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -689,8 +708,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ioansuciu\Documents\UiPath\LC_Unattended_VoucherOrder_ProcessOrderEmail\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F60F9A-6A75-42E6-B9E0-8B37027F3814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C1E63B-E093-4B04-B614-68A6FDF4C65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37920" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14955" yWindow="3255" windowWidth="26715" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -195,9 +195,6 @@
     <t>DBQ_UpdateOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">UPDATE LC_Orders SET Status = 'Completed' WHERE Order_ID = '&lt;orderId&gt;'; </t>
-  </si>
-  <si>
     <t>DBQ_UpdateItem</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
 WHERE NOT EXISTS (
     SELECT 1 FROM [dbo].[voucher_bank] vb WHERE vb.voucher_number = v.voucher_number
 );</t>
+  </si>
+  <si>
+    <t>UPDATE LC_Orders SET Status = 'Completed' WHERE Order_ID = '&lt;orderId&gt;';</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -689,7 +689,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -697,31 +697,31 @@
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
